--- a/model/datasplit.xlsx
+++ b/model/datasplit.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/ardit_baboci_ucalgary_ca/Documents/ENEL 645/final-project/7. final project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/ardit_baboci_ucalgary_ca/Documents/ENEL 645/final-project/SUBMISSION/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F55C1F2-58DA-4B0E-B5DF-D77044D297F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="8_{1F55C1F2-58DA-4B0E-B5DF-D77044D297F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47A2250-7938-447C-9330-84A966EC879A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6005F33-3618-424D-B9C3-5E83796638B9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6005F33-3618-424D-B9C3-5E83796638B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_split" sheetId="1" r:id="rId1"/>
+    <sheet name="iou_by_category" sheetId="2" r:id="rId2"/>
+    <sheet name="distribution_by_pixels" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iou_by_category!$A$3:$F$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
   <si>
     <t>test</t>
   </si>
@@ -138,13 +143,238 @@
   </si>
   <si>
     <t>New Split</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>unlabeled</t>
+  </si>
+  <si>
+    <t>ego vehicle</t>
+  </si>
+  <si>
+    <t>rectification border</t>
+  </si>
+  <si>
+    <t>out of roi</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>sidewalk</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>rail track</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>guard rail</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>tunnel</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>polegroup</t>
+  </si>
+  <si>
+    <t>traffic light</t>
+  </si>
+  <si>
+    <t>traffic sign</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>terrain</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>rider</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>caravan</t>
+  </si>
+  <si>
+    <t>trailer</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>v0 mean IoU</t>
+  </si>
+  <si>
+    <t>ignoreInEval</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>mIoU on train categories</t>
+  </si>
+  <si>
+    <t>mIoU on all categories</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Used in Evaluation</t>
+  </si>
+  <si>
+    <t>label_new</t>
+  </si>
+  <si>
+    <t>v1 mean IoU</t>
+  </si>
+  <si>
+    <t>v2 mean IoU</t>
+  </si>
+  <si>
+    <t>road
+92.6%</t>
+  </si>
+  <si>
+    <t>sidewalk
+65.5%</t>
+  </si>
+  <si>
+    <t>building
+81.3%</t>
+  </si>
+  <si>
+    <t>wall
+19.3%</t>
+  </si>
+  <si>
+    <t>fence
+24.5%</t>
+  </si>
+  <si>
+    <t>pole
+33.9%</t>
+  </si>
+  <si>
+    <t>traffic light
+24.2%</t>
+  </si>
+  <si>
+    <t>traffic sign
+44.2%</t>
+  </si>
+  <si>
+    <t>vegetation
+86.8%</t>
+  </si>
+  <si>
+    <t>terrain
+44.7%</t>
+  </si>
+  <si>
+    <t>sky
+85.5%</t>
+  </si>
+  <si>
+    <t>person
+50.4%</t>
+  </si>
+  <si>
+    <t>rider
+0.02%</t>
+  </si>
+  <si>
+    <t>car
+85.1%</t>
+  </si>
+  <si>
+    <t>truck
+18.4%</t>
+  </si>
+  <si>
+    <t>bus
+0.2%</t>
+  </si>
+  <si>
+    <t>train
+11.4%</t>
+  </si>
+  <si>
+    <t>motorcycle
+0.9%</t>
+  </si>
+  <si>
+    <t>bicycle
+49.3%</t>
+  </si>
+  <si>
+    <t>Mean
+43.1%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +383,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,19 +439,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -228,6 +494,2971 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Training</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>distribution_by_pixels!$C$3:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>unlabeled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ego vehicle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rectification border</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>out of roi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ground</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>* road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>* sidewalk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>parking</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>rail track</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>* building</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>* wall</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>* fence</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>guard rail</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bridge</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>tunnel</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>* pole</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>polegroup</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>* traffic light</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>* traffic sign</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>* vegetation</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>* terrain</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>* sky</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>* person</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>* rider</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>* car</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>* truck</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>* bus</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>caravan</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>trailer</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>* train</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>* motorcycle</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>* bicycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>distribution_by_pixels!$F$3:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.0246799955877286E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6700025715170158E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5366108681697825E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5943121125711595E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3677760579599638E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0688186637971076E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.216300941121024E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32617943961265383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1708019989662499E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0058729856153305E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9758375719150382E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20210733040015408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6254630075833149E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0201226992845567E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2986365677909566E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8988322100082912E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0728934668314462E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0888614668254325E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4803766288252676E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.523829015147163E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.529850853595677E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13121136888661838</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0145800801140607E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5438073472626903E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1024354228555973E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.266382862108132E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3164623844765913E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5690157758483851E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1866042519387962E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3655106689766203E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3238905503485582E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8684361429753174E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8451026676041951E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7365693676161119E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A684-4271-9923-E8E2532F0CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>distribution_by_pixels!$C$3:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>unlabeled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ego vehicle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rectification border</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>out of roi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ground</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>* road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>* sidewalk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>parking</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>rail track</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>* building</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>* wall</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>* fence</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>guard rail</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bridge</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>tunnel</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>* pole</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>polegroup</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>* traffic light</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>* traffic sign</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>* vegetation</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>* terrain</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>* sky</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>* person</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>* rider</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>* car</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>* truck</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>* bus</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>caravan</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>trailer</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>* train</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>* motorcycle</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>* bicycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>distribution_by_pixels!$H$3:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.2244373263572752E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8187381408648212E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.449807682342543E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5876092897356923E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0562414062740774E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4361839622930419E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4888291406628933E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32338602620668966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2102888804393068E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0268256469301947E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4830371285903826E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18940785211951919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7482552968170735E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7652662439952692E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4722428789772981E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2291081133133708E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1292276173269931E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8011805931004026E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4327468608078658E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2321022760692436E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.394181150079327E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18131737838410392</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1951598395348482E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5851878557011399E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3491665781145682E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6157152638961089E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1494270476704546E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4335778570301503E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5996677278983442E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.946867477223801E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1936696122351422E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.038003336040289E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2934338319440296E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4679481913351424E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A684-4271-9923-E8E2532F0CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="787788608"/>
+        <c:axId val="787791488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Testing</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="110000"/>
+                          <a:satMod val="105000"/>
+                          <a:tint val="67000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="103000"/>
+                          <a:tint val="73000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="109000"/>
+                          <a:tint val="81000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>distribution_by_pixels!$C$3:$C$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>unlabeled</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ego vehicle</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>rectification border</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>out of roi</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>static</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>dynamic</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ground</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>* road</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>* sidewalk</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>parking</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>rail track</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>* building</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>* wall</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>* fence</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>guard rail</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>bridge</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>tunnel</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>* pole</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>polegroup</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>* traffic light</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>* traffic sign</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>* vegetation</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>* terrain</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>* sky</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>* person</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>* rider</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>* car</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>* truck</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>* bus</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>caravan</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>trailer</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>* train</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>* motorcycle</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>* bicycle</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>distribution_by_pixels!$J$3:$J$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>1.0246799955877286E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.6700025715170158E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5366108681697825E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5943121125711595E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3677760579599638E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.0688186637971076E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.216300941121024E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.32617943961265383</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.1708019989662499E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.0058729856153305E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.9758375719150382E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.20210733040015408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5.6254630075833149E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.0201226992845567E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.2986365677909566E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.8988322100082912E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0728934668314462E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0888614668254325E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7.4803766288252676E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.523829015147163E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.529850853595677E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.13121136888661838</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.0145800801140607E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.5438073472626903E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.1024354228555973E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.266382862108132E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>6.3164623844765913E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.5690157758483851E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.1866042519387962E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.3655106689766203E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2.3238905503485582E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.8684361429753174E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>7.8451026676041951E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.7365693676161119E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A684-4271-9923-E8E2532F0CA4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="787788608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787791488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="787791488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>% of Total Pixels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787788608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86066949615836186"/>
+          <c:y val="0.16367352783528055"/>
+          <c:w val="0.12106566694249686"/>
+          <c:h val="0.15306235044274841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Training</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>distribution_by_pixels!$C$3:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>unlabeled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ego vehicle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rectification border</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>out of roi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ground</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>* road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>* sidewalk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>parking</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>rail track</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>* building</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>* wall</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>* fence</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>guard rail</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bridge</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>tunnel</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>* pole</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>polegroup</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>* traffic light</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>* traffic sign</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>* vegetation</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>* terrain</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>* sky</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>* person</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>* rider</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>* car</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>* truck</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>* bus</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>caravan</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>trailer</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>* train</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>* motorcycle</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>* bicycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>distribution_by_pixels!$E$3:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>82876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37770927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12428091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12894778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11062557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2482057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9837428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263813555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41821387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5666342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2406854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163464176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4549868</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6486666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>509433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3153371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>867755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8806699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>605012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2041270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4472537</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106123604</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8205912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28662273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8916485</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1024249</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51087475</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2077817</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1768523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1511189</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>634511</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3022133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3CC-4456-BABF-ABAC57226B82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>distribution_by_pixels!$C$3:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>unlabeled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ego vehicle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rectification border</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>out of roi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ground</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>* road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>* sidewalk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>parking</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>rail track</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>* building</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>* wall</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>* fence</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>guard rail</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bridge</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>tunnel</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>* pole</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>polegroup</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>* traffic light</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>* traffic sign</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>* vegetation</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>* terrain</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>* sky</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>* person</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>* rider</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>* car</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>* truck</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>* bus</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>caravan</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>trailer</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>* train</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>* motorcycle</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>* bicycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>distribution_by_pixels!$G$3:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>20151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6284633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2612785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>565505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2450219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53220787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10220493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>662709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31171523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1604305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1442531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185841</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1283868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>367345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>723166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29840045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1966917</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5900271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>265904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8474595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>235929</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>263263</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>499975</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>212865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>406159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3CC-4456-BABF-ABAC57226B82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="727198520"/>
+        <c:axId val="727201040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="727198520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727201040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727201040"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727198520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD4A4B1-15D1-04A5-68C0-6F9AAD13CB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E48F2B-8A37-4107-BB70-CB98E1316879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E240AB6-A94B-4AD5-AE0D-78800E0C7A48}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,4 +4185,2266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EB812C-AD4B-4407-A899-9E9E2C42379F}">
+  <dimension ref="A3:AP40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.97490102599999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.97812642400000005</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.97533773800000001</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="M5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.93450471300000004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.93809867700000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.94272436100000001</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="M6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.98752008300000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.98776652899999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.98775145600000003</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="M7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.15013325199999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.11661824</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.5040437999999996E-2</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="M8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3.8958328E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.5114322000000002E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.7019702299999997E-3</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.0863465899999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.11183997499999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.7694897399999999E-2</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.92613630000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.91895943999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.92383854499999996</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.65490362099999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.66078238</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.63543946600000001</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.21299238100000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.21754156499999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.221505691</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.29293289E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.33446664E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.37910671E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.81310441300000003</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.80374354800000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.80367344799999996</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.193440362</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.182462923</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.156964929</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.24513141199999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.25181410599999998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.229657009</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.115129342</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8.3494427699999998E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.101405168</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.33938942799999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.32574438</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.30202202900000003</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.242395423</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.168447033</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.19550969700000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.442499484</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.45523887299999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.40099009200000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.86791478099999997</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.86180504499999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.85900480000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.44738856100000002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.41929785600000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.41462925299999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.85518798900000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.85071983699999998</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.86332528100000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.50387273899999996</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.52668045900000005</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.45879636600000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.8655067800000001E-4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.3952394700000003E-3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9.3245126699999998E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.85123491699999998</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.81909213000000003</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.82757521599999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.184122761</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.4829716300000005E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.13558424899999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.1182855300000002E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8.1591022400000004E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.14933527299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.114416804</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.135275275</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.14917011399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8.5583430199999994E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.67161185E-4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.8525049399999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.493430814</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.51423582499999998</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.45565001799999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="8">
+        <f>AVERAGE(D5:D37)</f>
+        <v>0.3514637094796364</v>
+      </c>
+      <c r="E39" s="8">
+        <f>AVERAGE(E5:E37)</f>
+        <v>0.34995830865621202</v>
+      </c>
+      <c r="F39" s="8">
+        <f>AVERAGE(F5:F37)</f>
+        <v>0.34577990503808187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="11">
+        <f>AVERAGEIF(A4:A37, 0, D4:D37)</f>
+        <v>0.43081226253831584</v>
+      </c>
+      <c r="E40" s="11">
+        <f>AVERAGEIF(A4:A37, 0, E4:E37)</f>
+        <v>0.42501485522921034</v>
+      </c>
+      <c r="F40" s="11">
+        <f>AVERAGEIF(A4:A37, 0, F4:F37)</f>
+        <v>0.42051495155403679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA6B6D-7FAB-43EF-81B2-2E5CF5131139}">
+  <dimension ref="A1:AS37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(A3="false",B3,"* " &amp; B3)</f>
+        <v>unlabeled</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>82876</v>
+      </c>
+      <c r="F3" s="13">
+        <f>E3/SUM($E$3:$E$36)</f>
+        <v>1.0246799955877286E-4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>20151</v>
+      </c>
+      <c r="H3" s="8">
+        <f>G3/SUM($G$3:$G$36)</f>
+        <v>1.2244373263572752E-4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>82876</v>
+      </c>
+      <c r="J3" s="13">
+        <f>I3/SUM($I$3:$I$36)</f>
+        <v>1.0246799955877286E-4</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C36" si="0">IF(A4="false",B4,"* " &amp; B4)</f>
+        <v>ego vehicle</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>37770927</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F36" si="1">E4/SUM($E$3:$E$36)</f>
+        <v>4.6700025715170158E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6284633</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H36" si="2">G4/SUM($G$3:$G$36)</f>
+        <v>3.8187381408648212E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>37770927</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J36" si="3">I4/SUM($I$3:$I$36)</f>
+        <v>4.6700025715170158E-2</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>rectification border</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12428091</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5366108681697825E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>23860</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="2"/>
+        <v>1.449807682342543E-4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>12428091</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5366108681697825E-2</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>out of roi</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12894778</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5943121125711595E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2612785</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5876092897356923E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>12894778</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5943121125711595E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>static</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11062557</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3677760579599638E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1738294</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0562414062740774E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>11062557</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3677760579599638E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>dynamic</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2482057</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0688186637971076E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>565505</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4361839622930419E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2482057</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="3"/>
+        <v>3.0688186637971076E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>ground</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9837428</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>1.216300941121024E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2450219</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4888291406628933E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>9837428</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="3"/>
+        <v>1.216300941121024E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>* road</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>263813555</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.32617943961265383</v>
+      </c>
+      <c r="G10" s="6">
+        <v>53220787</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32338602620668966</v>
+      </c>
+      <c r="I10" s="6">
+        <v>263813555</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="3"/>
+        <v>0.32617943961265383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>* sidewalk</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>41821387</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.1708019989662499E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10220493</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>6.2102888804393068E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>41821387</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="3"/>
+        <v>5.1708019989662499E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>parking</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5666342</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0058729856153305E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>662709</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0268256469301947E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5666342</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="3"/>
+        <v>7.0058729856153305E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>rail track</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2406854</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9758375719150382E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>123151</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4830371285903826E-4</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2406854</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="3"/>
+        <v>2.9758375719150382E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>* building</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>163464176</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20210733040015408</v>
+      </c>
+      <c r="G14" s="6">
+        <v>31171523</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18940785211951919</v>
+      </c>
+      <c r="I14" s="6">
+        <v>163464176</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.20210733040015408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>* wall</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4549868</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>5.6254630075833149E-3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1604305</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>9.7482552968170735E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>4549868</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="3"/>
+        <v>5.6254630075833149E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>* fence</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6486666</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
+        <v>8.0201226992845567E-3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1442531</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>8.7652662439952692E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6486666</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="3"/>
+        <v>8.0201226992845567E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>guard rail</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>509433</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2986365677909566E-4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>106516</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="2"/>
+        <v>6.4722428789772981E-4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>509433</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="3"/>
+        <v>6.2986365677909566E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>bridge</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3153371</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8988322100082912E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>118972</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="2"/>
+        <v>7.2291081133133708E-4</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3153371</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="3"/>
+        <v>3.8988322100082912E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>tunnel</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>867755</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0728934668314462E-3</v>
+      </c>
+      <c r="G19" s="6">
+        <v>185841</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1292276173269931E-3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>867755</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0728934668314462E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>* pole</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8806699</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0888614668254325E-2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1283868</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="2"/>
+        <v>7.8011805931004026E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8806699</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0888614668254325E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>polegroup</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6">
+        <v>605012</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4803766288252676E-4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>105866</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
+        <v>6.4327468608078658E-4</v>
+      </c>
+      <c r="I21" s="6">
+        <v>605012</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="3"/>
+        <v>7.4803766288252676E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>* traffic light</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2041270</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="1"/>
+        <v>2.523829015147163E-3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>367345</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2321022760692436E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2041270</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="3"/>
+        <v>2.523829015147163E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>* traffic sign</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4472537</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="1"/>
+        <v>5.529850853595677E-3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>723166</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="2"/>
+        <v>4.394181150079327E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4472537</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="3"/>
+        <v>5.529850853595677E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>* vegetation</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6">
+        <v>106123604</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.13121136888661838</v>
+      </c>
+      <c r="G24" s="6">
+        <v>29840045</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18131737838410392</v>
+      </c>
+      <c r="I24" s="6">
+        <v>106123604</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13121136888661838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>* terrain</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8205912</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0145800801140607E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1966917</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1951598395348482E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8205912</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0145800801140607E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>* sky</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>28662273</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5438073472626903E-2</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5900271</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="2"/>
+        <v>3.5851878557011399E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>28662273</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="3"/>
+        <v>3.5438073472626903E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>* person</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8916485</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1024354228555973E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1374052</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="2"/>
+        <v>8.3491665781145682E-3</v>
+      </c>
+      <c r="I27" s="6">
+        <v>8916485</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1024354228555973E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>* rider</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1024249</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="1"/>
+        <v>1.266382862108132E-3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>265904</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6157152638961089E-3</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1024249</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="3"/>
+        <v>1.266382862108132E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>* car</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6">
+        <v>51087475</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="1"/>
+        <v>6.3164623844765913E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8474595</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="2"/>
+        <v>5.1494270476704546E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>51087475</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="3"/>
+        <v>6.3164623844765913E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>* truck</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2077817</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5690157758483851E-3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>235929</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4335778570301503E-3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2077817</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5690157758483851E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>* bus</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1768523</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1866042519387962E-3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>263263</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5996677278983442E-3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1768523</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1866042519387962E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>caravan</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6">
+        <v>353082</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3655106689766203E-4</v>
+      </c>
+      <c r="G32" s="6">
+        <v>64955</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>3.946867477223801E-4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>353082</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3655106689766203E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>trailer</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6">
+        <v>187956</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3238905503485582E-4</v>
+      </c>
+      <c r="G33" s="6">
+        <v>36102</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>2.1936696122351422E-4</v>
+      </c>
+      <c r="I33" s="6">
+        <v>187956</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="3"/>
+        <v>2.3238905503485582E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>* train</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1511189</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="1"/>
+        <v>1.8684361429753174E-3</v>
+      </c>
+      <c r="G34" s="6">
+        <v>499975</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>3.038003336040289E-3</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1511189</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="3"/>
+        <v>1.8684361429753174E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>* motorcycle</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="6">
+        <v>634511</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8451026676041951E-4</v>
+      </c>
+      <c r="G35" s="6">
+        <v>212865</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2934338319440296E-3</v>
+      </c>
+      <c r="I35" s="6">
+        <v>634511</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="3"/>
+        <v>7.8451026676041951E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>* bicycle</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3022133</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7365693676161119E-3</v>
+      </c>
+      <c r="G36" s="6">
+        <v>406159</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="2"/>
+        <v>2.4679481913351424E-3</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3022133</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="3"/>
+        <v>3.7365693676161119E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="8">
+        <f>SUM(F3:F36)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <f>SUM(H3:H36)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J37" s="8">
+        <f>SUM(J3:J36)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>